--- a/data/TopOnePercent/Hunan Normal University.xlsx
+++ b/data/TopOnePercent/Hunan Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1350.0</v>
+        <v>1285.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>21504.0</v>
+        <v>19484.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>15.93</v>
+        <v>15.16</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>512.0</v>
+        <v>519.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3947.0</v>
+        <v>3836.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>7.71</v>
+        <v>7.39</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,22 +228,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>6665.0</v>
+        <v>6537.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>64160.0</v>
+        <v>60826.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>9.63</v>
+        <v>9.3</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
